--- a/psidis/expdata/20017.xlsx
+++ b/psidis/expdata/20017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobethier/Documents/fitpack/database/psidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/JAM Database/psidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6DE5B3-62BE-3C4E-AC41-005FA24649AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B877B641-14E5-3848-BA3D-B448398F4F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="500" windowWidth="25600" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>proton</t>
-  </si>
-  <si>
     <t>pi+</t>
   </si>
   <si>
@@ -70,13 +67,16 @@
   </si>
   <si>
     <t>COMPASS</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,9 +131,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,7 +483,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,38 +492,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -535,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1">
         <v>0.2</v>
@@ -547,7 +558,7 @@
         <v>0.85</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -570,10 +581,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1">
         <v>0.2</v>
@@ -582,7 +593,7 @@
         <v>0.85</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -605,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1">
         <v>0.2</v>
@@ -617,7 +628,7 @@
         <v>0.85</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -640,10 +651,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1">
         <v>0.2</v>
@@ -652,7 +663,7 @@
         <v>0.85</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -675,10 +686,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1">
         <v>0.2</v>
@@ -687,7 +698,7 @@
         <v>0.85</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -710,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
@@ -722,7 +733,7 @@
         <v>0.85</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -745,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
         <v>0.2</v>
@@ -757,7 +768,7 @@
         <v>0.85</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -780,10 +791,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
         <v>0.2</v>
@@ -792,7 +803,7 @@
         <v>0.85</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -815,10 +826,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
         <v>0.2</v>
@@ -827,7 +838,7 @@
         <v>0.85</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -850,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1">
         <v>0.2</v>
@@ -862,7 +873,7 @@
         <v>0.85</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -885,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="1">
         <v>0.2</v>
@@ -897,7 +908,7 @@
         <v>0.85</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -920,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="1">
         <v>0.2</v>
@@ -932,7 +943,7 @@
         <v>0.85</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
